--- a/attribute_list/attribute_list.xlsx
+++ b/attribute_list/attribute_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD0F28-738C-442A-8ADC-7AF676C988A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9A435-5D70-437A-A32A-9960CB98C2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>中文参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,22 @@
   </si>
   <si>
     <t>DewDifficultySettings.ApplyDifficultyModifiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图可生成灵魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetNodeIndexSettings.allowedTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把枚举类WorldNodeType里所有对象添加到数组即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1466,6 +1482,23 @@
         <v>114</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
